--- a/data/Garden_Plant.xlsx
+++ b/data/Garden_Plant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimbh\iCloudDrive\Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009B1C7-9600-4E7C-90AB-0A239FB28DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859FCC88-35E1-440F-9BDB-D7280DECA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C8888CD-E2C7-49EF-A3CC-8C80CE16FA43}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="511">
   <si>
     <t>Chijimisai</t>
   </si>
@@ -5633,6 +5633,45 @@
     <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5679,45 +5718,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6088,85 +6088,85 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="37" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="37" customWidth="1"/>
+    <col min="3" max="4" width="7.81640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="39" customWidth="1"/>
     <col min="6" max="6" width="11" style="27" customWidth="1"/>
-    <col min="7" max="8" width="3.77734375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="40" customWidth="1"/>
-    <col min="10" max="10" width="3.77734375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" style="40" customWidth="1"/>
-    <col min="12" max="13" width="3.77734375" style="36" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="41" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="117" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" style="59" customWidth="1"/>
-    <col min="17" max="18" width="3.77734375" style="34" customWidth="1"/>
-    <col min="19" max="21" width="3.77734375" style="32" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" style="66" customWidth="1"/>
-    <col min="23" max="27" width="3.77734375" style="42" customWidth="1"/>
-    <col min="28" max="29" width="3.77734375" style="43" customWidth="1"/>
-    <col min="30" max="31" width="3.77734375" style="42" customWidth="1"/>
-    <col min="32" max="32" width="11.21875" style="42" customWidth="1"/>
-    <col min="33" max="36" width="3.77734375" style="45" customWidth="1"/>
-    <col min="37" max="37" width="4.77734375" style="44" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="3.81640625" style="40" customWidth="1"/>
+    <col min="12" max="13" width="3.81640625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="7.08984375" style="117" customWidth="1"/>
+    <col min="16" max="16" width="3.81640625" style="59" customWidth="1"/>
+    <col min="17" max="18" width="3.81640625" style="34" customWidth="1"/>
+    <col min="19" max="21" width="3.81640625" style="32" customWidth="1"/>
+    <col min="22" max="22" width="3.81640625" style="66" customWidth="1"/>
+    <col min="23" max="27" width="3.81640625" style="42" customWidth="1"/>
+    <col min="28" max="29" width="3.81640625" style="43" customWidth="1"/>
+    <col min="30" max="31" width="3.81640625" style="42" customWidth="1"/>
+    <col min="32" max="32" width="11.1796875" style="42" customWidth="1"/>
+    <col min="33" max="36" width="3.81640625" style="45" customWidth="1"/>
+    <col min="37" max="37" width="4.81640625" style="44" customWidth="1"/>
     <col min="38" max="38" width="5" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="147" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="148"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="143" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="127" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="133" t="s">
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="123" t="s">
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="136" t="s">
         <v>301</v>
       </c>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="125"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="138"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="11"/>
       <c r="AN1" s="1" t="s">
@@ -6176,7 +6176,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
@@ -6204,14 +6204,14 @@
       <c r="I2" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="129" t="s">
         <v>480</v>
       </c>
-      <c r="K2" s="146"/>
-      <c r="L2" s="135" t="s">
+      <c r="K2" s="130"/>
+      <c r="L2" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="136"/>
+      <c r="M2" s="149"/>
       <c r="N2" s="57" t="s">
         <v>304</v>
       </c>
@@ -6221,35 +6221,35 @@
       <c r="P2" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="Q2" s="135" t="s">
+      <c r="Q2" s="148" t="s">
         <v>385</v>
       </c>
-      <c r="R2" s="136"/>
-      <c r="S2" s="137" t="s">
+      <c r="R2" s="149"/>
+      <c r="S2" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="T2" s="138"/>
-      <c r="U2" s="137" t="s">
+      <c r="T2" s="151"/>
+      <c r="U2" s="150" t="s">
         <v>386</v>
       </c>
-      <c r="V2" s="138"/>
-      <c r="W2" s="126" t="s">
+      <c r="V2" s="151"/>
+      <c r="W2" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="126" t="s">
+      <c r="X2" s="140"/>
+      <c r="Y2" s="139" t="s">
         <v>388</v>
       </c>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="126" t="s">
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="139" t="s">
         <v>384</v>
       </c>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="126" t="s">
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="127"/>
+      <c r="AE2" s="140"/>
       <c r="AF2" s="55" t="s">
         <v>6</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" s="8" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -6288,10 +6288,10 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="142"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="58"/>
       <c r="O3" s="58"/>
       <c r="P3" s="30"/>
@@ -6305,10 +6305,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="31"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
@@ -6322,7 +6322,7 @@
       <c r="AK3" s="21"/>
       <c r="AL3" s="10"/>
     </row>
-    <row r="4" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>390</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>391</v>
       </c>
@@ -6435,8 +6435,8 @@
       <c r="E5" s="79">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
-        <v>383</v>
+      <c r="F5" s="112" t="s">
+        <v>499</v>
       </c>
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
@@ -6507,7 +6507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>392</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>507</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>394</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>393</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="107" t="s">
         <v>395</v>
       </c>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="AN10" s="118"/>
     </row>
-    <row r="11" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="107" t="s">
         <v>396</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="107" t="s">
         <v>400</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>397</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>403</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>404</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="107" t="s">
         <v>408</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>402</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>405</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="107" t="s">
         <v>411</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="107" t="s">
         <v>409</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="107" t="s">
         <v>410</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
         <v>343</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>401</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="107" t="s">
         <v>406</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>412</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>413</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>509</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>416</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>417</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>418</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>419</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>420</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>421</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="107" t="s">
         <v>423</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>415</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>414</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>510</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>422</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="107" t="s">
         <v>424</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="107" t="s">
         <v>407</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="107" t="s">
         <v>425</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>2</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>426</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>428</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>427</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>429</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="107" t="s">
         <v>430</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>432</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>433</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>434</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>435</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>436</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>496</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>437</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>431</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>438</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>398</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>399</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="107" t="s">
         <v>439</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>441</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>442</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>443</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>444</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>445</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>446</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>447</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>448</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>449</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>450</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>451</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>455</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>1</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>505</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>467</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>468</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="107" t="s">
         <v>473</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="107" t="s">
         <v>474</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>452</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>461</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>463</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>0</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>470</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>456</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
         <v>459</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>465</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>454</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>453</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>460</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="s">
         <v>466</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>458</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>457</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>462</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>464</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>440</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="107" t="s">
         <v>471</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>469</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="107" t="s">
         <v>472</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="60" t="s">
         <v>332</v>
       </c>
@@ -14014,11 +14014,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="107" t="s">
         <v>506</v>
       </c>
-      <c r="B99" s="77"/>
+      <c r="B99" s="77" t="s">
+        <v>178</v>
+      </c>
       <c r="C99" s="78"/>
       <c r="D99" s="78"/>
       <c r="E99" s="80"/>
@@ -14067,7 +14069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="113"/>
       <c r="B100" s="77"/>
       <c r="C100" s="78"/>
@@ -14116,7 +14118,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="113"/>
       <c r="B101" s="77"/>
       <c r="C101" s="78"/>
@@ -14165,7 +14167,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="113"/>
       <c r="B102" s="77"/>
       <c r="C102" s="78"/>
@@ -14214,7 +14216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="113"/>
       <c r="B103" s="77"/>
       <c r="C103" s="78"/>
@@ -14263,7 +14265,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="113"/>
       <c r="B104" s="77"/>
       <c r="C104" s="78"/>
@@ -14312,7 +14314,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="113"/>
       <c r="B105" s="77"/>
       <c r="C105" s="78"/>
@@ -14361,7 +14363,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="113"/>
       <c r="B106" s="77"/>
       <c r="C106" s="78"/>
@@ -14417,13 +14419,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="B1:D1"/>
@@ -14436,6 +14431,13 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="O4:O1000">
@@ -14562,13 +14564,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -14594,12 +14596,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>488</v>
       </c>
@@ -14629,21 +14631,21 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="5" width="7.21875" style="63" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="5" width="7.1796875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="152" t="s">
         <v>7</v>
       </c>
@@ -14663,7 +14665,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="152"/>
       <c r="B3" s="152"/>
       <c r="C3" s="152"/>
@@ -14671,7 +14673,7 @@
       <c r="E3" s="152"/>
       <c r="F3" s="152"/>
     </row>
-    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>111</v>
       </c>
@@ -14688,7 +14690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
@@ -14705,7 +14707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>121</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>125</v>
       </c>
@@ -14739,77 +14741,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F2:F3"/>
@@ -14831,13 +14833,13 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -14853,7 +14855,7 @@
       <c r="E2" s="154"/>
       <c r="F2" s="154"/>
     </row>
-    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -14875,7 +14877,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>116</v>
       </c>
@@ -14897,7 +14899,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
@@ -14919,7 +14921,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>121</v>
       </c>
@@ -14941,7 +14943,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>125</v>
       </c>
@@ -14963,7 +14965,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>126</v>
       </c>
@@ -14985,7 +14987,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
@@ -15004,7 +15006,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>122</v>
       </c>
@@ -15017,7 +15019,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>104</v>
       </c>
@@ -15036,7 +15038,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>141</v>
       </c>
@@ -15055,7 +15057,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>120</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>127</v>
       </c>
@@ -15090,7 +15092,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>131</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>133</v>
       </c>
@@ -15122,7 +15124,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>161</v>
       </c>
@@ -15154,7 +15156,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>130</v>
       </c>
@@ -15170,7 +15172,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>132</v>
       </c>
@@ -15186,7 +15188,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>142</v>
       </c>
@@ -15202,7 +15204,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>143</v>
       </c>
@@ -15218,7 +15220,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>145</v>
       </c>
@@ -15234,7 +15236,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>139</v>
       </c>
@@ -15250,7 +15252,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>128</v>
       </c>
@@ -15263,7 +15265,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>123</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>119</v>
       </c>
@@ -15302,7 +15304,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>144</v>
       </c>
@@ -15318,7 +15320,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>115</v>
       </c>
@@ -15331,7 +15333,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>135</v>
       </c>
@@ -15344,7 +15346,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>140</v>
       </c>
@@ -15357,7 +15359,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>146</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>149</v>
       </c>
@@ -15389,7 +15391,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>150</v>
       </c>
@@ -15405,7 +15407,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>137</v>
       </c>
@@ -15421,7 +15423,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>134</v>
       </c>
@@ -15437,7 +15439,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>136</v>
       </c>
@@ -15450,7 +15452,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>138</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>108</v>
       </c>
@@ -15479,7 +15481,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>118</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>1</v>
       </c>
@@ -15511,7 +15513,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>110</v>
       </c>
@@ -15527,7 +15529,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>109</v>
       </c>
@@ -15543,7 +15545,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>106</v>
       </c>
@@ -15559,7 +15561,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>114</v>
       </c>
@@ -15575,7 +15577,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>101</v>
       </c>
@@ -15591,7 +15593,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>100</v>
       </c>
@@ -15607,7 +15609,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>105</v>
       </c>
@@ -15623,7 +15625,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>117</v>
       </c>
@@ -15639,7 +15641,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>97</v>
       </c>
@@ -15652,7 +15654,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>0</v>
       </c>
@@ -15668,7 +15670,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>102</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>103</v>
       </c>
@@ -15694,7 +15696,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>99</v>
       </c>
@@ -15710,7 +15712,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>124</v>
       </c>
@@ -15726,7 +15728,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>113</v>
       </c>
@@ -15742,7 +15744,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>98</v>
       </c>
@@ -15758,7 +15760,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>112</v>
       </c>
@@ -15771,7 +15773,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>147</v>
       </c>
@@ -15787,7 +15789,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>220</v>
       </c>
@@ -15806,7 +15808,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>225</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>267</v>
       </c>
@@ -15844,7 +15846,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>229</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>231</v>
       </c>
@@ -15882,7 +15884,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>235</v>
       </c>
@@ -15901,7 +15903,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>238</v>
       </c>
@@ -15920,7 +15922,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>240</v>
       </c>
@@ -15939,7 +15941,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>242</v>
       </c>
@@ -15958,7 +15960,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>246</v>
       </c>
@@ -15977,7 +15979,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>252</v>
       </c>
@@ -15996,7 +15998,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>249</v>
       </c>
@@ -16015,7 +16017,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>255</v>
       </c>
@@ -16034,7 +16036,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>259</v>
       </c>
@@ -16053,7 +16055,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>263</v>
       </c>
@@ -16072,7 +16074,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>269</v>
       </c>
@@ -16091,7 +16093,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>272</v>
       </c>
